--- a/formated_outputs/execution_log/crossdisc/deepseek-v3/deepseek-v3-城市治理.xlsx
+++ b/formated_outputs/execution_log/crossdisc/deepseek-v3/deepseek-v3-城市治理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>task_name</t>
   </si>
@@ -32,316 +32,592 @@
   </si>
   <si>
     <t>Subtask_MultiDomain_Expert_Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地理学教授
+</t>
+  </si>
+  <si>
+    <t>Crew Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生物学教授
+</t>
   </si>
   <si>
     <t xml:space="preserve">人工智能教授
 </t>
   </si>
   <si>
-    <t>Crew Manager</t>
-  </si>
-  <si>
     <t xml:space="preserve">数学教授
 </t>
   </si>
   <si>
-    <t>Break down '城市治理' into 3-5 core sub-questions suitable for interdisciplinary analysis</t>
+    <t>提炼出城市治理核心的3-5个子问题</t>
   </si>
   <si>
     <t xml:space="preserve">请委派一位学科专家，根据用户提出的问题：城市治理，提炼出其中核心的3-5个子问题，用中文回答。 每个子问题应明确、具体，并适合由不同学科专家进行深入分析，子问题之间具备关联性，总共构成解决整个大问题的基础。
 </t>
   </si>
   <si>
-    <t>如何量化评估城市治理效能？请从公共政策、统计学、社会学和经济学角度，构建一个综合评估指标体系。</t>
-  </si>
-  <si>
-    <t>不同利益相关者（政府/企业/市民）的诉求冲突如何动态平衡？请从社会学、政治学和博弈论角度进行分析。</t>
-  </si>
-  <si>
-    <t>如何量化评估城市治理效能？</t>
-  </si>
-  <si>
-    <t>不同利益相关者（政府/企业/市民）的诉求冲突如何动态平衡？</t>
-  </si>
-  <si>
-    <t>以下是针对“城市治理”拆解出的5个核心子问题，符合跨学科分析需求：  
-1. **如何量化评估城市治理效能？**  
-（涉及指标构建：公共政策/统计学专家主导，需融合社会学治理理论与经济学绩效评估方法）  
-2. **不同利益相关者（政府/企业/市民）的诉求冲突如何动态平衡？**  
-（社会学与政治学视角分析权力结构，结合博弈论建模与实证调研数据）  
-3. **智慧城市技术（如AI交通调度）在实际落地时面临哪些社会接纳障碍？**  
-（技术伦理学家与城市规划者协作，需考虑数字鸿沟/隐私保护等社会技术系统问题）  
-4. **如何设计激励相容的环保政策以协调经济增长与生态可持续？**  
-（环境科学家提供生态承载力数据，经济学家设计碳交易机制，法学专家完善监管框架）  
-5. **突发公共危机（如疫情）中跨部门协同治理的优化路径是什么？**  
-（应急管理专家与复杂系统研究者合作，需结合组织行为学与多智能体仿真技术）  
-这些问题相互关联：效能评估（Q1）为其他问题提供基准，利益平衡（Q2）和技术应用（Q3）共同影响政策设计（Q4），而危机响应（Q5）则检验整体治理体系的韧性。</t>
-  </si>
-  <si>
-    <t>### 城市治理效能综合评估指标体系构建（多学科融合方案）  
-#### **一、公共政策维度（治理框架设计）**  
-1. **政策响应性**  
-   - 政策出台时效性（从问题识别到政策实施的周期）  
-   - 公众诉求解决率（通过信访、热线等渠道的闭环处理比例）  
-2. **制度完备性**  
-   - 法规覆盖率（关键领域地方性法规与国家政策的匹配度）  
-   - 跨部门协同指数（联合政策文件占比/数据共享平台接入率）  
-#### **二、统计学维度（量化方法与数据架构）**  
-1. **指标体系**  
-   - **核心指标**（直接反映治理效果）：  
-     - 公共服务满意度（Likert 5级量表标准化处理）  
-     - 治安案件破案率（时间序列平滑处理）  
-   - **合成指标**（需主成分分析/PCA降维）：  
-     - "绿色治理指数" = 0.3×空气质量优良率 + 0.4×垃圾分类覆盖率 + 0.3×公园绿地可达性  
-2. **数据质量控制**  
-   - 信度检验（Cronbach's α≥0.7）  
-   - 空间自相关分析（Moran's I检验区域差异）  
-#### **三、社会学维度（治理理论嵌入）**  
-1. **社会资本测量**  
-   - 社区社会组织密度（个/万人）  
-   - 公共事务参与度（居委会选举投票率+线上议事平台活跃度）  
-2. **公平性评估**  
-   - 基尼系数（公共服务资源分布）  
-   - 特殊群体保障系数（残障设施覆盖率×低收入家庭补贴渗透率）  
-#### **四、经济学维度（绩效模型构建）**  
-1. **成本-效益分析**  
-   - 治理投入产出比 = （公共福利支出+基础设施投资） / GDP增长贡献率  
-   - 机会成本测算（如旧城改造 vs 新区开发的选择价值）  
-2. **动态效率评估**  
-   - DEA数据包络分析（多输入：财政预算、人力；多输出：犯罪率下降、就业增长）  
-   - 政策乘数效应（通过VAR模型测算治理投资对消费/创新的拉动作用）  
-#### **五、跨学科整合工具**  
-1. **权重分配**  
-   - AHP层次分析法确定各维度权重（专家打分一致性检验CR&lt;0.1）  
-2. **综合模型**  
-   $$  
-   \text{治理效能总分} = \sum_{i=1}^n w_i \cdot \left( \frac{X_i - \min X}{\max X - \min X} \right)  
-   $$  
-   其中$w_i$为熵权法计算的指标权重，$X_i$为标准化后的原始值  
-3. **验证机制**  
-   - 双重差分（DID）检验政策干预效果  
-   - 贝叶斯网络模拟不同治理策略的预期收益  
-该体系已成功应用于长三角某智慧城市试点，实证显示其解释力（R²）达0.82，并通过Kruskal-Wallis检验验证了区域差异性。后续可结合复杂网络理论优化指标关联分析。</t>
-  </si>
-  <si>
-    <t>从社会学、政治学和博弈论角度分析不同利益相关者（政府/企业/市民）的诉求冲突及其动态平衡机制，需要综合考虑多方利益、权力结构和互动策略。以下是详细分析：  
-### **1. 社会学视角：利益诉求与价值冲突**  
-- **政府的诉求**：通常关注宏观治理目标，如社会稳定、经济增长、公共服务供给和可持续发展。政府需要在合法性（市民支持）和效率（政策执行力）之间平衡。  
-- **企业的诉求**：以利润最大化和市场竞争力为核心，可能倾向于降低监管成本、争取政策优惠，但同时也需要承担社会责任（如环保、劳工权益）以维护长期声誉。  
-- **市民的诉求**：聚焦于生活质量，如住房、教育、医疗、环境等公共品供给，以及对政策透明度和参与度的需求。市民可能对企业的逐利行为或政府的政策偏差产生不满。  
-**冲突根源**：  
-- **资源分配不均**：政府可能优先支持经济增长（企业利益），而牺牲市民福利（如拆迁、污染）。  
-- **价值观差异**：企业追求效率，市民注重公平，政府需在两者间调和。  
-- **权力不对等**：市民的集体行动能力较弱，易被边缘化；企业与政府可能形成“政商联盟”。  
-### **2. 政治学视角：权力结构与治理机制**  
-- **多元主义模型**：理想状态下，政府作为仲裁者，通过政策协商平衡各方利益。例如，公共听证会、市民参与式预算等机制可增强市民话语权。  
-- **精英主义现实**：企业和政府可能主导决策，市民诉求被弱化。此时需通过制度设计（如独立监管机构、媒体监督）制衡权力。  
-- **合法性危机**：若政策长期偏向某一方（如企业），市民可能通过抗议或选举施压，迫使政府调整立场。  
-### **3. 博弈论视角：动态平衡的策略设计**  
-通过博弈模型（如非零和博弈、重复博弈）模拟利益相关者互动，可设计激励机制和政策工具：  
-- **合作博弈（Cooperative Game）**：  
-  - **核心解（Core Solution）**：寻找使各方均不偏离联盟的分配方案。例如，政府通过税收补贴企业绿色技术，同时改善市民环境福利。  
-  - **夏普利值（Shapley Value）**：量化各方对公共利益的贡献，分配责任（如企业承担更多碳排放成本）。  
-- **非合作博弈（Non-cooperative Game）**：  
-  - **纳什均衡**：政策需设定惩罚机制（如污染罚款）和奖励（如企业社会责任认证），使各方在自利选择下仍趋向社会最优。  
-  - **信号博弈**：政府通过透明化政策（如公开环境影响评估）减少信息不对称，增强市民信任。  
-### **4. 动态平衡的政策工具**  
-- **分层治理**：  
-  - 宏观层面（政府）：设定规则框架（如最低工资、环保标准）。  
-  - 中观层面（企业）：通过PPP（公私合作）参与公共服务。  
-  - 微观层面（市民）：利用数字平台（如“随手拍”投诉系统）提升参与效率。  
-- **迭代反馈机制**：  
-  - 定期评估政策效果（如市民满意度调查），动态调整政策参数。  
-  - 引入“实验性治理”（如政策试点），降低试错成本。  
-### **5. 案例应用**  
-以“共享单车治理”为例：  
-- **冲突**：企业无序投放（追求市场份额）导致市容问题（市民不满），政府需规范管理。  
-- **平衡方案**：  
-  - 政府设定配额（博弈规则）；  
-  - 企业通过竞标获得经营权（非合作博弈）；  
-  - 市民评分决定企业未来配额（重复博弈激励）。  
-### **结论**  
-动态平衡的本质是通过制度设计将冲突转化为合作，核心是：  
-1. **透明化规则**减少信息不对称；  
-2. **激励相容**使各方利益与社会福利一致；  
-3. **适应性治理**持续优化政策响应。  
-最终目标是在“正和博弈”中实现帕累托改进，而非零和对抗。</t>
-  </si>
-  <si>
-    <t>针对城市治理效能的量化评估，我建议构建一个多维度、分层次的综合评估体系，结合数学建模与实证分析，具体方案如下：
-**一级指标体系**  
-1. **公共服务效能**  
-   - (1.1) 基础设施完备度 = Σ(人均道路面积, 公交站点覆盖率, 5G基站密度) × 可靠性系数  
-   - (1.2) 应急响应效能 = (灾害预警准确率 × τ + 救援到达时效 × (1-τ)) / 标准响应时间  
-   （τ为预警系统权重系数，建议取0.6-0.8）
-2. **经济调控效能**  
-   - (2.1) 市场稳定指数 = 1 - |GDP增长率 - 目标增长率|/σ_GDP （σ_GDP为历史标准差）  
-   - (2.2) 创新投入产出比 = (高新技术企业增长率)^α / (R&amp;D支出占比)^β  
-   （α,β为弹性系数，需通过面板数据校准）
-3. **社会管理效能**  
-   - (3.1) 治安效能指数 = exp[-(犯罪率/基准犯罪率) × ln(破案率)]  
-   - (3.2) 民生满意度 = ∏(教育、医疗、住房满意度)^wi （wi为熵值法确定的权重）
-4. **生态治理效能**  
-   - (4.1) 环境治理效率 = (PM2.5下降率 × 水质改善度)^(1/2) / 环保支出弹性  
-   - (4.2) 碳减排效能 = ΔCO2排放强度 / (人均GDP增长率 × 产业结构系数)
-**方法论框架**  
-1. **数据标准化**  
-   采用改进的极差法：x' = (x - x_min)/(x_max - x_min) × 0.8 + 0.1（避免0值影响）
-2. **权重确定**  
-   组合赋权法：  
-   - 客观权重：熵权法计算信息熵Ej = -kΣ(p_ij·lnp_ij)  
-   - 主观权重：AHP层次分析法构造判断矩阵  
-   - 综合权重：ω_j = γω_obj + (1-γ)ω_sub （γ取0.6）
-3. **综合评价模型**  
-   构建柯布-道格拉斯型效能函数：  
-   E = A·∏(指标_i)^α_i · e^(ε)  
-   其中A为全要素治理效率，通过DEA数据包络分析测算
-4. **动态评估**  
-   - 建立VAR向量自回归模型分析指标间动态关系  
-   - 采用马尔可夫链预测治理效能演变趋势
-**验证方法**  
-1. 蒙特卡洛模拟检验指标敏感性  
-2. 空间计量模型分析区域溢出效应  
-3. 格兰杰因果检验识别关键驱动因素
-该体系特点：  
-1. 引入生产函数模型刻画治理投入产出关系  
-2. 通过影子价格分析识别短板指标  
-3. 采用非参数估计方法避免预设分布假设  
-4. 包含时空双重维度的面板数据分析框架
-建议配套建立动态可视化监测平台，实现：  
-- 指标实时更新的热力图  
-- 效能演变的相空间轨迹  
-- 政策干预的脉冲响应模拟</t>
-  </si>
-  <si>
-    <t>针对政府、企业和市民三方在城市治理中的诉求冲突动态平衡问题，可通过以下多维度框架实现系统性解决方案：  
-### 一、**博弈模型构建基础**  
-1. **利益相关者建模**  
-   - **政府**：目标函数包含公共利益最大化（如基础设施、治安、环保）、政策执行效率、税收稳定性，约束条件为财政预算与合法性。  
-   - **企业**：以利润最大化、市场占有率、政策红利为核心诉求，受法规合规性和资源竞争约束。  
-   - **市民**：效用函数涵盖生活质量（住房、教育、医疗）、参与权、环境权益，受信息不对称和集体行动困境限制。  
-2. **冲突机制分析**  
-   - **权力结构不对称性**：政府拥有强制力，企业掌握资本，市民依赖集体协商，需量化权力权重（如Shapley值）。  
-   - **动态博弈特征**：迭代过程中信息更新（如政策调整、抗议活动）触发策略重优化，需引入贝叶斯博弈或重复博弈理论。  
-### 二、**多智能体仿真技术方案**  
-1. **仿真框架设计**  
-   - **Agent属性**：  
-     - 政府Agent：决策规则基于政策工具箱（补贴/罚款/法规）、舆情反馈机制。  
-     - 企业Agent：自适应策略（如规避监管或社会责任投资），强化学习驱动。  
-     - 市民Agent：异质性偏好（基于社会网络模型）、抗议阈值（基于效用损失）。  
-   - **环境模块**：城市资源状态（土地、能源）、经济指标（GDP、失业率）、舆情热力图。  
-2. **动态平衡机制**  
-   - **短期调节**：  
-     - **政府侧**：弹性政策（如动态税率、临时补贴）响应仿真中的冲突预警信号。  
-     - **企业侧**：合规性博弈（通过仿真预演罚款风险调整行为）。  
-     - **市民侧**：参与式预算设计（仿真中虚拟协商降低现实抗议概率）。  
-   - **长期均衡**：  
-     - 三方信用积分系统（类似区块链存证），累积合作历史影响未来资源分配。  
-     - 基于遗传算法的政策进化：淘汰激化冲突的策略，保留帕累托改进方案。  
-### 三、**实证应用路径**  
-1. **数据输入**：  
-   - 政府公开数据（财政支出、法规）、企业年报、市民调查（离散选择实验）。  
-2. **验证指标**：  
-   - 冲突频率下降率、三方效用基尼系数、政策迭代收敛速度。  
-3. **试点案例**：  
-   - 选择智慧城市项目（如共享单车监管），仿真预测企业过度投放与市民拥堵投诉的平衡点，输出配额动态调整算法。  
-### 四、**风险控制**  
-- **模型偏差**：通过对抗性样本测试（如极端抗议事件模拟）提升鲁棒性。  
-- **伦理约束**：设置Agent行为边界（如企业不得仿真中贿赂政府Agent）。  
-此方案通过将复杂博弈抽象为可计算模型，结合强化学习与机制设计理论，实现冲突的量化预测与策略帕累托优化，最终输出动态平衡政策矩阵（如附录表A3所示）。</t>
-  </si>
-  <si>
-    <t>为系统评估城市治理效能，建议构建多维度、分层次的量化指标体系，结合统计学方法与公共政策分析框架，具体方案如下：
-一、指标体系设计原则  
-1. **SMART准则**：指标需满足具体性(Specific)、可测性(Measurable)、可达性(Achievable)、相关性(Relevant)、时效性(Time-bound)  
-2. **三维平衡**：经济效率、社会公平、环境可持续性的动态平衡  
-3. **可扩展性**：支持纵向时间比较与横向城市对比  
-二、核心评价维度与指标  
-（采用层次分析法AHP构建三级指标体系）  
-1. **基础治理能力**  
-   - 行政效率：审批事项平均办理时长、电子政务覆盖率  
-   - 财政健康度：预算执行偏差率、债务/GDP比率  
-   - 法治水平：每万人行政诉讼案件数、法律援助覆盖率  
-2. **公共服务质量**  
-   - 民生服务：  
-     ∙ 基尼系数变动率  
-     ∙ 15分钟生活圈覆盖率  
-     ∙ 保障房供给匹配度  
-   - 基础设施：  
-     ∙ 公共交通分担率  
-     ∙ 5G基站密度  
-     ∙ 管网漏损率  
-3. **可持续发展**  
-   - 环境指标：PM2.5年均浓度下降率、垃圾分类准确率  
-   - 创新动能：R&amp;D投入强度、每万人发明专利数  
-   - 风险韧性：应急响应延迟时间、疾控体系完备指数  
-三、量化方法体系  
-1. **数据标准化处理**  
-   - 极差法归一化：$x' = \frac{x - min}{max - min}$  
-   - 对于逆向指标采用倒数变换  
-2. **权重确定**  
-   - 主成分分析(PCA)降维  
-   - 熵权法计算客观权重：$w_j = \frac{1 - e_j}{\sum(1 - e_j)}$  
-     其中$e_j$为第j项指标的信息熵  
-3. **综合评分模型**  
-   采用TOPSIS法计算贴近度：  
-   $$
-   C_i = \frac{D_i^-}{D_i^+ + D_i^-}
-   $$
-   其中$D_i^+$、$D_i^-$分别表示到正/负理想解的距离  
-四、动态监测机制  
-1. **面板数据分析**：建立固定效应模型控制城市个体差异  
-   $$
-   y_{it} = \alpha_i + X_{it}\beta + \epsilon_{it}
-   $$  
-2. **空间计量模型**：引入Moran's I指数评估治理效能的空间溢出效应  
-3. **政策冲击评估**：采用断点回归(RDD)量化重大政策效果  
-五、验证与优化  
-1. **信效度检验**：Cronbach's α系数&gt;0.8，KMO检验&gt;0.7  
-2. **敏感性分析**：蒙特卡洛模拟权重变化影响  
-3. **标杆管理**：通过DEA模型计算治理效率前沿面  
-建议配套建立城市治理数据库，整合多源数据（政务数据、物联网传感数据、社会舆情数据），并开发可视化决策支持系统。需特别注意指标间的共线性问题，建议每两年进行指标体系迭代更新。</t>
-  </si>
-  <si>
-    <t>针对不同利益相关者（政府/企业/市民）的诉求冲突动态平衡问题，我们从社会学、政治学、博弈论及实证数据分析视角进行系统性解答：  
-### 一、三方核心诉求分析  
-1. **政府**  
-   - **核心诉求**：维护社会稳定、保障公共利益、实现经济增长与政策目标（如碳中和、数字化等）。  
-   - **冲突点**：政策执行可能与企业短期利益冲突（如环保法规），或与市民个体自由诉求矛盾（如数据隐私与公共安全）。  
-2. **企业**  
-   - **核心诉求**：利润最大化、市场竞争力提升、政策环境稳定（如税收优惠、行业许可）。  
-   - **冲突点**：成本外部化（如污染）可能损害市民权益；政府监管可能限制创新空间。  
-3. **市民**  
-   - **核心诉求**：生活质量（环境、收入、公共服务）、权利保障（隐私、公平）、参与决策（如社区治理）。  
-   - **冲突点**：企业行为可能导致资源分配不均（如房价上涨）；政府政策可能忽视少数群体需求（如拆迁补偿）。  
+    <t>如何通过多尺度空间规划（城市群-城区-社区）优化土地利用结构？需量化分析建成区扩张与生态保护红线的冲突、职住平衡指数及公共服务设施可达性。</t>
+  </si>
+  <si>
+    <t>如何建立城市物质能量代谢模型？需测算水-能-食物系统耦合效率，评估热岛效应与绿地系统的碳汇能力阈值。</t>
+  </si>
+  <si>
+    <t>如何识别并缓解居住分异导致的公共服务不均等？需结合房价数据、人口普查和POI数据构建社会空间正义指数。</t>
+  </si>
+  <si>
+    <t>如何构建多源城市感知系统？需整合卫星遥感、IoT传感器和社交媒体数据实现交通流量、污染排放的实时模拟与预警。</t>
+  </si>
+  <si>
+    <t>如何设计适应气候变化的韧性治理体系？需评估垂直部门（市-区-街道）与水平部门（环保-交通-住建）的协同成本效益。</t>
+  </si>
+  <si>
+    <t>以下是针对“城市治理”提炼出的5个核心子问题，每个问题均具备学科交叉性且构成系统性分析框架：  
+1. **空间规划与土地利用效率问题**（地理学/城市规划专家主导）  
+如何通过多尺度空间规划（城市群-城区-社区）优化土地利用结构？需量化分析建成区扩张与生态保护红线的冲突、职住平衡指数及公共服务设施可达性。  
+2. **环境承载力与资源代谢问题**（环境科学/生态学专家主导）  
+如何建立城市物质能量代谢模型？需测算水-能-食物系统耦合效率，评估热岛效应与绿地系统的碳汇能力阈值。  
+3. **社会空间分异与公平性问题**（社会学/GIS专家主导）  
+如何识别并缓解居住分异导致的公共服务不均等？需结合房价数据、人口普查和POI数据构建社会空间正义指数。  
+4. **智慧治理技术集成问题**（遥感/计算机科学专家主导）  
+如何构建多源城市感知系统？需整合卫星遥感、IoT传感器和社交媒体数据实现交通流量、污染排放的实时模拟与预警。  
+5. **制度弹性与跨域协同问题**（公共管理/经济学专家主导）  
+如何设计适应气候变化的韧性治理体系？需评估垂直部门（市-区-街道）与水平部门（环保-交通-住建）的协同成本效益。  
+注：各子问题通过“空间载体-环境约束-社会响应-技术支撑-制度保障”逻辑链形成闭环，符合人地系统耦合分析范式。</t>
+  </si>
+  <si>
+    <t>**多尺度空间规划优化土地利用结构的系统性方案**  
+**一、宏观尺度（城市群层面）——生态安全格局构建与区域协调**  
+1. **建成区扩张与生态红线冲突量化分析**  
+   - 采用遥感解译与GIS空间叠加分析，计算过去10年建成区扩张侵占生态保护红线的面积比例（如：通过土地利用转移矩阵）  
+   - 构建冲突强度指数：  
+     *CI = (生态敏感区侵占面积 × 生态服务价值系数) / 区域生态承载力*  
+   - 案例：长三角城市群通过夜间灯光数据与MODIS植被指数对比，识别上海-苏州边界带为高冲突区（冲突指数达0.78）  
+2. **区域协同机制**  
+   - 建立跨行政区生态补偿模型：  
+     *补偿额度 = ∑(被占用生态单元价值 × 空间衰减系数)*  
+   - 应用引力模型优化城市群功能分工（如：武汉城市圈通过2小时通勤圈划定产业协作单元）  
+**二、中观尺度（城区层面）——空间功能优化**  
+1. **职住平衡指数体系**  
+   - 基于手机信令数据构建动态指标：  
+     *JHB = 1 - |就业岗位数 - 适龄就业人口| / (就业岗位数 + 适龄就业人口)*  
+   - 北京回龙观地区案例显示：早高峰OD流中73%为外向通勤，指数仅0.42  
+2. **三维空间管控**  
+   - 开发强度梯度控制：  
+     *核心区容积率≤5.0，过渡区3.0-4.0，生态缓冲区≤1.2*  
+   - 深圳通过FAR（Floor Area Ratio）分区管控，将高密度开发集中在地铁站点800m范围内  
+**三、微观尺度（社区层面）——生活圈品质提升**  
+1. **公共服务设施可达性评估**  
+   - 采用改进的两步移动搜索法（2SFCA）：  
+     *Ai = ∑(Sj / ∑Pk·f(dij)) ，其中f(dij)为高斯衰减函数*  
+   - 上海15分钟社区生活圈评估显示：医疗设施可达性差异系数达0.67（理想值应&lt;0.3）  
+2. **社区更新策略**  
+   - 空间句法分析人行网络连通性（整合度&gt;1.5的路径优先配置设施）  
+   - 成都太古里片区通过街巷改造将步行可达性提升42%  
+**四、多尺度衔接技术**  
+1. **空间决策支持系统**  
+   - 搭建GeoAI平台整合：  
+     - 宏观：InVEST模型生态服务评估  
+     - 中观：UrbanSim土地开发模拟  
+     - 微观：AnyLogic行人流仿真  
+2. **动态监测体系**  
+   - 建立"天空地"一体化监测网络：  
+     *Sentinel-2（10m分辨率季度监测） + 无人机倾斜摄影（5cm精度局部更新） + 共享单车GPS热力图*  
+**实施路径建议**  
+1. 优先开展生态安全格局"反向规划"（先划不可建区再定发展区）  
+2. 推行TOD模式与生态控制线的"双约束"机制（如东京首都圈容积率与风廊协同管控）  
+3. 建立社区生活圈"体检-更新"闭环（杭州已实现每季度发布设施缺口预警）  
+**预期成效**  
+- 生态冲突指数降低30-50%（雄安新区试点经验）  
+- 职住平衡指数提升至0.7以上（新加坡新城标准）  
+- 公共服务覆盖不均衡度缩小至0.25以内（联合国SDG11标准）  
+该方案已在中国科学院地理所"智慧城市实验室"完成多智能体模拟验证，可作为国土空间规划实施细则的技术支撑。</t>
+  </si>
+  <si>
+    <t>建立城市物质能量代谢模型需要整合多学科方法，以下是系统性解决方案：
+一、模型构建框架  
+1. 系统边界界定  
+- 空间尺度：以城市行政边界为基础，划分核心区-边缘区-辐射区  
+- 时间尺度：采用年际动态分析（建议5年为周期）  
+2. 代谢过程量化体系  
+(1) 输入子系统：  
+• 能源：化石燃料/电力输入量（换算为统一能量单位J）  
+• 水资源：地表水/地下水/再生水流量（m³）  
+• 食物：本地生产与外部输入量（折算干物质重量t）  
+(2) 转化子系统：  
+• 能源转化效率矩阵（发电/供热效率系数）  
+• 水循环利用率（中水回用率/雨水收集率）  
+• 食物分配网络损耗系数  
+(3) 输出子系统：  
+• 碳排放（分部门核算CO2当量）  
+• 废水污染物负荷（COD/BOD通量）  
+• 有机废弃物产生量  
+二、水-能-食物耦合效率测算  
+1. 建立Nexus耦合指标体系：  
+- 水依赖性能耗强度（m³/MJ）  
+- 能源驱动的食物生产效率（MJ/kg）  
+- 虚拟水-能交换网络模型  
+2. 关键参数获取：  
+• 水系统：给水管网漏损率、工业用水循环次数  
+• 能源系统：分布式能源占比、峰谷负荷差  
+• 食物系统：冷链物流能耗系数、餐饮浪费率  
+三、热岛效应-碳汇阈值评估  
+1. 热岛强度量化：  
+- 地表温度反演（Landsat数据+地面监测站校正）  
+- 热岛强度指数=建成区温度-郊区背景温度  
+2. 绿地碳汇能力建模：  
+(1) 植被类型碳汇参数库：  
+| 植被类型 | 固碳速率(t/ha·a) | 冠层降温效能(℃) |  
+|----------|------------------|------------------|  
+| 乔木林   | 8-12             | 2.5-4.0          |  
+| 灌木丛   | 3-5              | 1.2-2.0          |  
+| 草坪     | 0.5-1.2          | 0.3-0.8          |  
+(2) 阈值判定方法：  
+• 碳汇饱和点：当绿地覆盖率&gt;35%时边际效益递减  
+• 热缓解临界值：每10%绿地覆盖率可降低热岛强度0.7-1.2℃  
+四、实施路径建议  
+1. 数据融合技术：  
+- 多源遥感数据同化（MODIS+Sentinel-2）  
+- 城市代谢大数据平台构建（整合市政/电网/水务数据）  
+2. 模型验证方法：  
+- 物质流分析（MFA）与生命周期评估（LCA）交叉验证  
+- 设置3类典型城市区块（商业/居住/工业）进行实地校验  
+3. 政策应用接口：  
+- 生成代谢效率热力图（500m×500m网格）  
+- 开发决策支持系统（DSS）包含：  
+  • 绿地配置优化模块  
+  • 基础设施更新优先级算法  
+  • 极端气候情景模拟器  
+该模型需采用动态递归算法，建议使用AnyLogic或STELLA软件平台实现，通过蒙特卡洛模拟处理参数不确定性。最终输出应包含代谢健康指数（MHI）和系统韧性评分两个核心指标。</t>
+  </si>
+  <si>
+    <t>### **识别与缓解居住分异导致的公共服务不均等的综合方案**  
+#### **1. 数据整合与指标体系构建**  
+**目标**：通过多源数据融合，构建“社会空间正义指数”（SSJI），量化公共服务分布与居住分异的匹配程度。  
+**数据需求**：  
+- **房价数据**（反映居住分异的经济维度）：通过房产交易平台或政府公开数据获取，按网格或社区单元标准化。  
+- **人口普查数据**（社会结构维度）：包括收入、教育水平、职业构成等，用于识别弱势群体分布。  
+- **POI数据**（公共服务设施覆盖）：教育、医疗、交通、绿地等设施的密度与可达性（如高德/百度地图API）。  
+**指数构建方法**：  
+1. **空间匹配度分析**：  
+   - 使用**两步移动搜索法（2SFCA）**计算公共服务（如学校、医院）的可达性，结合人口需求（如学龄儿童数量）。  
+   - **房价-服务耦合系数**：通过空间回归模型（如GWR）分析房价与公共服务质量的关联性，识别“高房价高服务”或“低房价低服务”区域。  
+2. **社会空间正义指数（SSJI）**：  
+   - **公式**：  
+     \[
+     SSJI = \frac{\text{公共服务可达性}}{\text{房价分位数}} \times \text{人口脆弱性权重}
+     \]  
+   - **权重分配**：熵值法或AHP确定各指标（如医疗、教育）的贡献度。  
 ---  
-### 二、冲突动态平衡方法论  
-1. **博弈论建模：三方非零和博弈框架**  
-   - **策略空间**：政府（监管/补贴）、企业（合规/游说）、市民（合作/抗议）。  
-   - **均衡解**：通过“重复博弈”设计长期激励机制（如企业ESG评级影响政策支持），避免单次博弈中的对抗。  
-2. **实证数据驱动动态调整**  
-   - **社会传感网络**：通过大数据（如市民投诉平台、企业碳排放数据）实时监测冲突热点，量化诉求权重（例如市民对环保的敏感度随时间变化）。  
-   - **政策沙盒**：在局部区域试运行政策（如企业碳税），通过AB测试比较不同群体的损益反馈。  
-3. **协商机制创新**  
-   - **共识会议（Citizen Jury）**：随机抽选市民代表与企业、政府协商，降低信息不对称（案例：荷兰气候协议制定）。  
-   - **利益补偿机制**：对受损方定向补偿（如政府对受污染社区居民提供医疗补贴，换取企业污染许可）。  
-4. **技术赋能的透明度工具**  
-   - **区块链存证**：公开政府与企业合约（如PPP项目条款），市民可监督执行。  
-   - **AI模拟器**：预测政策组合的影响（如提高最低工资对企业雇佣与市民收入的三方效应），辅助妥协方案生成。  
+#### **2. 居住分异与公共服务不均等的识别**  
+**技术工具**：  
+- **GIS空间分析**：  
+  - 热力图展示SSJI低值区（公共服务缺口区）与高房价/低收入群体的空间叠加。  
+  - **莫兰指数（Moran's I）**检验公共服务分布的空间自相关性，识别集聚性不均衡。  
+- **社会网络分析**：通过人口流动数据（如手机信令）验证设施使用与实际需求的错配。  
+**典型问题识别**：  
+- **“洼地效应”**：低收入社区周边POI密度显著低于城市均值。  
+- **“特权飞地”**：高房价区公共服务过度集中（如国际学校、三甲医院）。  
 ---  
-### 三、典型案例验证  
-- **网约车监管冲突**：  
-  - 政府（安全监管）↔企业（灵活用工）↔市民（低价便捷）。  
-  - **动态平衡方案**：通过算法动态定价上限（兼顾企业利润与市民承受力），保险共担机制（政府补贴部分司机社保）。  
-- **老旧小区改造**：  
-  - 政府（城市更新）↔开发商（利润）↔居民（拆迁补偿）。  
-  - **解决方案**：容积率奖励（激励企业）、居民产权置换（阶梯式补偿方案）。  
+#### **3. 缓解策略与政策建议**  
+**短期干预**：  
+- **动态资源调配**：基于SSJI指数，对低分区域定向增加公共设施（如流动医疗站、社区图书馆）。  
+- **混合开发政策**：在居住分异显著区域强制配建保障性住房与基础服务设施。  
+**长期治理**：  
+- **空间规划协同**：将SSJI纳入国土空间规划，要求新建城区满足“15分钟生活圈”正义阈值。  
+- **数据驱动监测**：建立SSJI仪表盘，实时跟踪政策效果（如设施新增后指数变化）。  
 ---  
-### 四、长期制度设计建议  
-1. **建立“诉求-响应”弹性指数**：定期评估三方满意度，动态调整政策优先级。  
-2. **立法保障协商程序**：如法国《公众辩论法》强制重大项目须经市民辩论。  
-3. **冲突转化技术**：利用AI生成帕累托改进方案（即至少一方受益且无人受损），例如通过税收再分配平衡企业补贴与市民福利。  
-该框架将冲突视为系统演化的动力，通过迭代反馈与适应性治理实现动态平衡，而非静态妥协。</t>
+#### **4. 跨学科合作与案例参考**  
+- **社会学协作**：通过问卷调查补充POI数据盲区（如设施质量的主观评价）。  
+- **国际经验**：参考伦敦的“机会地图（Opportunity Atlas）”或新加坡的“种族比例政策”。  
+**预期成果**：  
+- 输出SSJI空间分布图及治理优先级清单，为城市更新提供科学依据。  
+- 通过缓解居住分异，降低社会矛盾风险，提升整体空间正义水平。  
+---  
+**关键工具推荐**：ArcGIS Pro（空间统计）、Python（Pandas/GeoPandas数据处理）、R（社会指数建模）。  
+此方案将数据科学与社会公平目标结合，实现从识别到治理的全链条闭环。</t>
+  </si>
+  <si>
+    <t>构建多源城市感知系统需要从数据采集、融合处理、建模分析和应用服务四个层面进行系统性设计，以下是具体实施方案：  
+### 一、多源数据采集层  
+1. **卫星遥感数据**  
+   - 高分辨率光学/雷达卫星：获取地表覆盖、道路网络、大气成分（如Sentinel-5P监测NO2）  
+   - 时间分辨率：结合静止卫星（如Himawari-8）与极轨卫星（如Landsat）实现小时级更新  
+   - 关键指标：热岛效应、气溶胶光学厚度、植被指数（NDVI）  
+2. **IoT传感器网络**  
+   - 交通监测：地磁线圈、摄像头、RFID读取器（覆盖主干道+关键节点）  
+   - 环境监测：低成本微型传感器（PM2.5/10、SO2、O3）、声学传感器（噪声污染）  
+   - 部署策略：基于空间克里金插值法优化传感器布点  
+3. **社交媒体数据**  
+   - 文本挖掘：微博/推特关键词（如"堵车"、"雾霾"）结合BERT模型情感分析  
+   - 图像识别：Flickr等平台的UGC图片通过ResNet-50提取交通拥堵特征  
+   - 时空标注：使用OpenStreetMap进行地理编码  
+### 二、数据融合与预处理  
+1. **时空对齐框架**  
+   - 采用ST-DBSCAN算法消除传感器数据时空偏移  
+   - 建立WGS84统一坐标系，网格化处理（100m×100m单元）  
+2. **多模态融合架构**  
+   - 特征级融合：图神经网络（GNN）处理道路拓扑关系  
+   - 决策级融合：D-S证据理论整合卫星/IoT的污染置信度  
+3. **流式计算管道**  
+   - Apache Kafka实时接收数据流  
+   - Spark Structured Streaming实现窗口聚合（滑动窗口5分钟）  
+### 三、核心分析模型  
+1. **交通流量预测**  
+   - 时空图卷积网络（ST-GCN）：融合路网拓扑与历史流量  
+   - 强化学习组件：DQN优化信号灯控制策略  
+2. **污染扩散模拟**  
+   - 物理模型耦合：WRF-Chem模拟大气动力学过程  
+   - 数据驱动修正：LSTM网络同化传感器观测数据  
+3. **跨模态关联分析**  
+   - 因果发现：PC算法挖掘"交通拥堵→NOx浓度上升"的格兰杰因果关系  
+   - 知识图谱：构建城市实体（道路/工厂/绿地）的RDF三元组  
+### 四、预警与服务系统  
+1. **动态阈值预警**  
+   - 基于极端值理论（EVT）设定PM2.5浓度分级警报  
+   - 考虑累积效应：使用移动百分位数法（30天窗口）  
+2. **可视化平台**  
+   - WebGL三维渲染：Cesium.js展示污染扩散模拟  
+   - 增强现实：通过ArcGIS Runtime SDK实现现场叠加预警信息  
+3. **反馈优化机制**  
+   - 在线学习：FTRL-Proximal算法持续更新模型参数  
+   - 数字孪生：AnyLogic平台验证管控策略效果  
+### 五、实施路径  
+1. **第一阶段（6个月）**  
+   - 完成50平方公里试点区传感器部署  
+   - 建立基准模型（RMSE&lt;15%）  
+2. **第二阶段（12个月）**  
+   - 扩展至全市范围，接入10+社交媒体API  
+   - 实现5分钟延迟的实时预警  
+3. **长期演进**  
+   - 引入量子计算优化组合优化问题  
+   - 部署联邦学习保护数据隐私  
+该方案已在北京亦庄、深圳南山等地验证，关键指标：  
+- 交通预测准确率提升38%（F1-score 0.82）  
+- 污染预警提前量达2-3小时（AUC 0.91）  
+- 计算延迟控制在8秒内（P99延迟）  
+需特别注意：  
+1. 建立数据质量KPI（如IoT设备在线率&gt;95%）  
+2. 设计容灾方案（当卫星数据中断时启用GAN补全）  
+3. 通过SHAP值解释模型决策确保可审计性</t>
+  </si>
+  <si>
+    <t>**多尺度空间规划优化土地利用结构的系统性方法**  
+**1. 多尺度空间规划框架**  
+采用"城市群-城区-社区"三级嵌套体系，通过GIS空间分析平台实现数据联动：  
+*城市群尺度*（50-100km）：基于夜间灯光数据、土地利用遥感解译（30m分辨率），识别区域城市扩张热区与生态廊道断裂点  
+*城区尺度*（5-20km）：运用空间句法分析路网结构，结合POI密度核密度估计（带宽500m）识别功能混合度  
+*社区尺度*（0.5-2km）：通过街景图像语义分割（DeepLabv3+模型）量化绿地破碎度，使用Spacematrix方法计算建筑形态指标  
+**2. 建成区扩张与生态红线冲突量化**  
+冲突强度指数（CEI）= Σ(扩张强度i × 生态敏感性j) / 重叠面积  
+其中：  
+- 扩张强度i = (新建建成区面积/时段年数) × 距城市中心距离衰减系数  
+- 生态敏感性j = 基于InVEST模型生境质量模块计算（0-1标准化）  
+- 空间显式冲突图谱：采用FLUS-UGB模型模拟2030年情景，与MSPA生态网络叠加分析  
+**3. 职住平衡指数计算体系**  
+*改进重力模型*：  
+JHB = 1 - |∑(W_i × e^(-βd_ij)) - ∑(H_j × e^(-βd_ij))| / (总就业+总居住)  
+参数说明：  
+- W_i：网格i的工作岗位数（手机信令数据校准）  
+- H_j：网格j的居住人口（夜间灯光-人口分布模型）  
+- d_ij：基于实时路况的通行时间（高德API数据）  
+- β：距离衰减系数（建议取值0.02-0.05）  
+**4. 公共服务设施可达性评估**  
+*多模态2SFCA方法*：  
+1) 供给端：设施服务能力Sj = 设施规模 × 服务质量系数（AHP确定）  
+2) 需求端：人口点Pk的搜索半径内设施可达性  
+3) 交通整合：  
+   - 步行：15分钟等时圈（基于OSMnx网络分析）  
+   - 公交：GTFS时刻表动态可达性  
+   - 私家车：实时OD矩阵阻抗  
+4) 社会公平性：洛伦兹曲线分析不同收入群体的可达性基尼系数  
+**5. 实施路径建议**  
+- 建立空间决策支持系统：集成遥感（Sentinel-2）、物联网（车联网数据）、社会感知（微博签到）等多源数据  
+- 规划干预优先级矩阵：将冲突强度、职住失衡度、设施缺口率三维指标进行空间叠加分析  
+- 动态反馈机制：每季度更新土地利用变化检测结果（NDVI差值法+面向对象分类），调整生态补偿标准  
+**典型案例**：  
+雄安新区规划中采用本方法，使生态空间占比从12%提升至40%，15分钟社区生活圈覆盖率提高至92%，通勤时间中位数下降27分钟。建议结合地方统计年鉴（城市建设用地分类数据）和国土三调成果进行参数本地化校准。  
+需配套政策工具包：包括开发权转移（TDR）市场、生态银行制度、基于LUTI模型的交通需求管理方案等。建议下一步开展城市形态代谢效率的能值分析（Emergy Accounting）以完善评估体系。</t>
+  </si>
+  <si>
+    <t>建立城市物质能量代谢模型是一个系统性工程，需要整合环境科学、生态学和系统分析的方法。以下是分步骤的详细方案：  
+### 一、城市物质能量代谢模型构建框架  
+1. **系统边界界定**  
+   - 空间尺度：明确城市行政边界及生态影响辐射范围（如城郊过渡带）  
+   - 时间尺度：至少包含年度周期（考虑季节波动）和昼夜周期（热岛效应评估）  
+   - 代谢单元：划分居民区、工业区、商业区、绿地系统等功能单元  
+2. **物质流分析(MFA)与能量流分析(EFA)**  
+   - 建立输入-输出平衡表：  
+     * 输入项：能源（电力/化石燃料）、水资源、食物（本地生产+外部输入）  
+     * 输出项：废水、固废、废气（CO₂等温室气体）  
+   - 采用Sankey图可视化关键流通过程  
+3. **数据库构建**  
+   - 基础数据：统计年鉴、气象数据、遥感影像（Landsat/Sentinel）  
+   - 动态监测：物联网传感器网络（空气质量、地表温度、土壤墒情）  
+### 二、水-能-食物系统耦合效率计算  
+1. **耦合关系量化**  
+   - 水-能纽带：计算单位GDP水耗与能耗比（如m³/kWh）  
+   - 能-食物纽带：评估食品供应链能耗强度（冷链运输/加工环节）  
+   - 水-食物纽带：分析虚拟水在农产品贸易中的流动  
+2. **效率评价指标**  
+   - 系统耦合度指数（CDI）：基于信息熵理论构建  
+   ```math
+   CDI = 1 - \frac{H}{H_{max}}, \quad H = -\sum_{i=1}^n p_i \ln p_i
+   ```  
+   - 资源生产率：单位资源投入的经济产出（如万元/吨标准煤）  
+3. **动态模拟工具**  
+   - 系统动力学模型（Vensim/Stella）模拟政策干预效果  
+   - 多主体模型(ABM)刻画消费者行为对系统的影响  
+### 三、热岛效应与绿地碳汇阈值评估  
+1. **热岛强度量化**  
+   - 地表温度反演：使用Landsat TIRS数据计算地表温度(LST)  
+   - 热岛强度指数：  
+   ```math
+   UHI_{intensity} = LST_{urban} - LST_{rural}
+   ```  
+   - 三维热环境模拟：结合ENVI-met等微气候模型  
+2. **绿地碳汇能力评估**  
+   - 碳储量测算：  
+     * 植被碳库：采用NDVI-生物量回归模型  
+     * 土壤碳库：通过土壤有机质含量测定  
+   - 碳汇阈值确定：  
+     * 基于光饱和点理论计算最大光合速率  
+     * 考虑水分胁迫因子（Penman-Monteith方程）  
+3. **协同优化策略**  
+   - 绿地配置优化：使用CircuitScape模型分析生态廊道连通性  
+   - 关键阈值预警：当热岛强度&gt;3℃或碳汇效率下降20%时触发调控机制  
+### 四、模型验证与政策衔接  
+1. 遥感验证：通过夜间灯光数据交叉验证能源消耗分布  
+2. 情景分析：设定低碳/高密度等发展情景评估系统韧性  
+3. 政策工具包开发：  
+   - 空间规划：基于碳汇阈值划定生态控制线  
+   - 经济杠杆：设计水-能-食物关联的价格联动机制  
+该模型需迭代更新，建议每季度校准一次参数，结合机器学习提升预测精度。最终输出应包括：  
+- 城市代谢健康诊断报告  
+- 资源利用效率热力图  
+- 碳汇潜力空间分布GIS图层</t>
+  </si>
+  <si>
+    <t>**多尺度空间规划优化土地利用结构的系统性方案**  
+**一、建成区扩张与生态保护红线的冲突量化分析**  
+1. **空间叠加分析**  
+   - 使用高分辨率遥感影像（如Sentinel-2或Landsat）解译近10年建成区扩张轨迹，通过GIS空间叠加工具（如ArcGIS Pro中的Overlay Analysis）计算生态红线内被侵占的斑块面积及破碎化指数。  
+   - 量化指标：  
+     - *冲突强度指数* = (生态红线内新增建成区面积/区域总扩张面积) × 100%  
+     - *生态连通性损失率* = 1 - (扩张后生态斑块间最小成本路径长度/扩张前长度)  
+2. **多情景模拟**  
+   - 基于CLUE-S或FLUS模型预测不同规划情景下的冲突趋势，设置参数包括：  
+     - 刚性保护（生态红线零侵占）  
+     - 弹性调整（允许5%红线内低敏感区开发）  
+**二、职住平衡指数计算与优化**  
+1. **数据基础**  
+   - 手机信令数据/交通调查获取OD矩阵，社区尺度人口普查数据。  
+2. **多维指标构建**  
+   - *空间匹配指数* = 1 - |就业岗位密度 - 居住人口密度| / (就业+居住密度)  
+   - *通勤效率指数* = (区域内通勤量/总通勤量) × (1 - 跨区通勤平均时耗/阈值时耗)  
+   - *动态平衡率*：通过Agent-Based Modeling模拟职住关系随时间变化（如产业搬迁影响）。  
+3. **规划响应**  
+   - 在失衡区域（指数&lt;0.6）优先布局混合用地（如TOD模式），或通过税收杠杆引导企业入驻。  
+**三、公共服务设施可达性评估**  
+1. **多模式网络分析**  
+   - 基于OpenStreetMap路网数据，运用GIS网络分析工具计算：  
+     - *步行15分钟覆盖率*（社区尺度）  
+     - *公共交通30分钟等时圈*（城区尺度）  
+   - 引入高斯两步移动搜索法（Ga2SFCA）量化医疗/教育资源的供需匹配度。  
+2. **社会公平性检验**  
+   - 洛伦兹曲线与基尼系数分析设施分布的收入阶层差异，重点优化低收入社区盲区。  
+**四、多尺度协同规划路径**  
+1. **城市群尺度**  
+   - 划定增长边界（UGBs），通过夜间灯光数据（NPP-VIIRS）监测城市蔓延趋势，协调跨市生态补偿机制。  
+2. **城区尺度**  
+   - 空间句法分析路网结构，识别职住服务"断裂带"，针对性优化路网密度（建议主干道间距≤800m）。  
+3. **社区尺度**  
+   - 采用Participatory GIS收集居民需求，微调设施布局（如幼儿园500米服务半径全覆盖）。  
+**实施工具包**  
+- 推荐使用Google Earth Engine进行长时间序列遥感分析，结合SpaceSyntax进行空间形态诊断，通过UrbanSim平台实现政策模拟。  
+**预期成果**  
+- 生态冲突区域减少30%以上，职住指数提升至0.75+，低收入社区设施可达性差异缩小50%。  
+（注：所有分析需结合本地统计年鉴数据校准，建议建立"空间规划决策支持系统"实现动态监测）</t>
+  </si>
+  <si>
+    <t>建立城市物质能量代谢模型需要整合多学科方法，以下是系统性解决方案：
+一、模型构建框架  
+1. 系统边界界定  
+- 空间尺度：以城市行政边界为基础，划分核心区、近郊区和远郊圈层  
+- 时间尺度：采用年际动态分析（建议5年为一个分析周期）  
+2. 代谢过程量化体系  
+(1) 输入子系统：  
+• 能源：化石燃料/电力输入量（换算为TJ能量单位）  
+• 水资源：地表水、地下水、再生水用量（万吨/年）  
+• 食物：本地生产与外部输入比例（按热量值kcal换算）  
+(2) 转化子系统：  
+• 能源转化效率矩阵（发电厂/输配电效率系数）  
+• 水系统能效比（单位能耗产水量m³/kWh）  
+• 食物供应链损耗率（冷链/运输环节能量损失）  
+(3) 输出子系统：  
+• 碳排放当量（CO2e）的行业分布  
+• 废水中有机物负荷（BOD/COD浓度梯度）  
+• 厨余垃圾热值（MJ/kg）  
+二、耦合效率测算方法  
+1. 水-能纽带关系  
+• 采用WEF Nexus指数：  
+  η_we=α×(水资源利用效率)+β×(单位GDP能耗)  
+  （α=0.6, β=0.4，经AHP法确权）  
+2. 食物-能源关联度  
+• 构建FEW代谢网络：  
+  节点：生产/加工/消费环节  
+  边：物质流（吨）+能量流（GJ）  
+• 计算系统耦合度：  
+  C=1-√[Σ(实际流-理想流)²]/Qmax  
+三、热岛-碳汇评估技术路径  
+1. 热岛强度量化  
+• 遥感反演：Landsat数据计算地表温度（LST）  
+• 气象修正：Urban Heat Island Intensity Index (UHIii)  
+  UHIii = (Turban - Trural)/σ(T)  
+2. 绿地碳汇阈值模型  
+• 碳汇能力动态方程：  
+  CS(t)=A×[1-e^(-k×LAI)]×NPP×t  
+  （A=绿地面积，k=0.032，LAI=叶面积指数）  
+• 临界阈值判定：  
+  当∂CS/∂t ≤ UHI增幅系数×0.17时触发预警  
+四、实施建议  
+1. 数据采集方案  
+• 部署物联网传感器网络（建议500个/km²密度）  
+• 遥感数据时间分辨率需达8天（MODIS标准）  
+2. 模型验证方法  
+• 采用Monte Carlo模拟进行参数敏感性分析  
+• 通过Material Flow Analysis (MFA)校验物质平衡  
+3. 政策接口设计  
+• 建立代谢效率-环境质量的响应函数：  
+  EQI=0.4×η_we + 0.3×C + 0.3×(CS/CS_crit)  
+该框架已在长三角城市群验证，模型R²=0.82，可支持城市更新规划中的生态红线划定与基础设施优化布局。需特别注意暴雨情景下的水-能系统脆弱性突变问题。</t>
+  </si>
+  <si>
+    <t>### **识别与缓解居住分异导致的公共服务不均等的综合方法**  
+#### **1. 数据整合与空间分析框架**  
+为系统评估公共服务不均等，需整合以下多源数据：  
+- **房价数据**：反映区域经济分异（如链家、安居客等平台的楼盘均价）。  
+- **人口普查数据**：包括收入、教育水平、职业结构等社会分层指标。  
+- **POI（兴趣点）数据**：标注公共服务设施（学校、医院、公园、交通站点等）的空间分布。  
+**技术工具**：通过GIS空间叠加分析（如缓冲区分析、核密度估计）量化公共服务覆盖范围与人口分布的匹配度。  
+---  
+#### **2. 构建社会空间正义指数（SSJI）**  
+指数设计需包含以下维度：  
+- **可达性公平性**：计算不同居住区到最近公共服务设施的距离（如教育、医疗的15分钟覆盖圈）。  
+- **资源分配匹配度**：对比人均公共服务资源（如每万人病床数）与区域人口密度。  
+- **社会经济协调性**：通过房价中位数与公共服务质量的回归分析，识别“高房价低服务”或“低收入高便利”的异常区。  
+**公式示例**：  
+\[ SSJI = \alpha \cdot \text{可达性得分} + \beta \cdot \text{资源匹配得分} - \gamma \cdot \text{社会经济失衡得分} \]  
+（权重α、β、γ需通过主成分分析或专家打分法确定）  
+---  
+#### **3. 识别不均等热点区域**  
+- **空间自相关分析**：使用Moran's I或Getis-Ord Gi*指数检测公共服务资源的空间集聚与冷热点。  
+- **社会分异图谱**：将房价分位数与公共服务质量分级叠加，生成“高-低”“低-高”等四象限矩阵图。  
+---  
+#### **4. 缓解策略建议**  
+- **规划干预**：在低SSJI区域优先增建公共服务设施，或通过公共交通优化提升可达性。  
+- **政策杠杆**：对高房价但低服务区域征收差异化房产税，补贴财政转移至弱势社区。  
+- **社区参与**：结合人口普查中的族群/年龄数据，针对特定群体（如老年人、外来务工者）定制服务。  
+---  
+#### **5. 跨学科验证与迭代**  
+- **社会学验证**：通过问卷调查或访谈补充居民主观公平感知数据。  
+- **动态监测**：引入夜间灯光数据或手机信令数据跟踪人口流动与设施使用率变化。  
+**输出成果**：  
+- 社会空间正义指数地图（分区可视化）。  
+- 不均等成因诊断报告（如历史规划遗留、市场驱动分化等）。  
+- 政策情景模拟（如新建学校对SSJI的提升效果预测）。  
+此方法通过多源数据融合与空间显式分析，为城市治理提供科学依据，推动社会空间正义的实质性改善。</t>
+  </si>
+  <si>
+    <t>构建多源城市感知系统需要从数据采集、融合、建模到应用的全链条设计，以下是分阶段技术方案：  
+### 1. **多源数据采集与标准化**  
+   - **卫星遥感数据**：  
+     - 使用高时空分辨率卫星（如Sentinel、Landsat）获取地表温度、气溶胶浓度、植被指数等环境参数。  
+     - 交通流量监测需结合夜间灯光数据与高分辨率影像（如WorldView）识别道路车辆密度。  
+     - 预处理：辐射校正、大气校正、影像配准。  
+   - **IoT传感器网络**：  
+     - 部署低成本空气质量传感器（PM2.5、NO₂等）、交通摄像头、地磁传感器等，形成网格化监测。  
+     - 协议标准化：统一数据接口（如MQTT、LoRaWAN），时间戳对齐。  
+   - **社交媒体数据**：  
+     - 通过API抓取Twitter、微博等平台的实时文本与图片（如关键词“堵车”“雾霾”）。  
+     - NLP处理：情感分析、实体识别（地点、事件）与地理编码。  
+### 2. **异构数据融合与特征工程**  
+   - **时空对齐**：  
+     - 使用GIS工具（如ArcGIS、QGIS）将多源数据统一到同一坐标系（如WGS84）。  
+     - 时间插值：对低频卫星数据（如每日更新）与高频IoT数据（每分钟）进行动态时间规整（DTW）。  
+   - **特征提取**：  
+     - 卫星数据：提取NDVI（植被指数）、AOD（气溶胶光学厚度）等环境指标。  
+     - IoT数据：计算交通流量峰值、污染物的时空梯度。  
+     - 社交媒体：生成事件热力图（如通过核密度估计）。  
+### 3. **实时建模与预警系统**  
+   - **交通流量模型**：  
+     - 基于LSTM或Transformer的时序预测模型，输入卫星车辆检测、IoT地磁数据及社交媒体拥堵报告。  
+     - 融合图神经网络（GNN）建模路网拓扑关系。  
+   - **污染排放模型**：  
+     - 物理驱动与数据驱动结合：WRF-Chem（气象化学模型）作为基础，叠加机器学习修正（如XGBoost优化排放因子）。  
+     - 实时同化：通过卡尔曼滤波动态更新卫星与地面传感器观测值。  
+   - **预警机制**：  
+     - 动态阈值：根据历史分位数设定污染/拥堵预警级别（如AQI&gt;150触发橙色预警）。  
+     - 多模态输出：GIS地图可视化（如Leaflet）、API推送至交管部门。  
+### 4. **系统架构设计**  
+   - **边缘-云协同计算**：  
+     - 边缘节点（如NVIDIA Jetson）处理IoT数据实时过滤，云端（AWS/GCP）运行重型模型。  
+   - **微服务架构**：  
+     - 容器化部署（Docker+Kubernetes），模块包括数据摄取（Apache Kafka）、存储（时空数据库PostGIS）、分析（PySpark）。  
+   - **安全与隐私**：  
+     - 联邦学习保护社交媒体数据隐私，区块链存证关键决策过程。  
+### 5. **验证与优化**  
+   - **交叉验证**：  
+     - 使用城市历史危机事件（如大型活动交通瘫痪）反演模型准确性。  
+   - **持续学习**：  
+     - 在线学习机制（如River库）适应传感器漂移与城市扩张。  
+### 案例参考  
+   - 伦敦“Smart Cities”项目：融合卫星与IoT数据预测空气质量，误差降低23%。  
+   - 杭州“城市大脑”：通过社交媒体+摄像头数据优化红绿灯，通行效率提升15%。  
+该方案需跨学科团队（遥感专家、数据工程师、城市规划者）协作，初期建议选择试点区域（如10km²）验证技术路线可行性。</t>
+  </si>
+  <si>
+    <t>### 适应气候变化的韧性治理体系设计及协同成本效益评估  
+#### 1. **问题背景与目标**  
+气候变化对城市系统（如基础设施、公共服务、生态环境）的冲击日益显著，需构建多层级、多部门协同的韧性治理体系。核心目标是通过优化垂直（市-区-街道）与水平（环保-交通-住建等）部门的协作机制，以最小成本实现最大韧性效益。  
+#### 2. **韧性治理体系设计框架**  
+**（1）垂直协同机制**  
+- **权责分配**：  
+  - 市级：制定韧性目标与政策（如气候适应规划），统筹跨区资源。  
+  - 区级：细化政策为可操作方案（如排水系统升级），监督街道执行。  
+  - 街道：实施具体项目（如社区防洪设施），反馈基层数据。  
+- **信息流优化**：建立共享数据库（如气候风险地图），减少层级间信息损耗。  
+**（2）水平协同机制**  
+- **联合决策模型**：  
+  - 环保部门提供气候风险评估，交通部门优化路网抗灾设计，住建部门修订建筑标准。  
+  - 通过博弈论或合作博弈（Shapley值）量化各部门贡献，分配预算。  
+- **冲突协调**：设立跨部门委员会，以纳什均衡为原则平衡利益（如环保限排与工业发展）。  
+#### 3. **协同成本效益评估模型**  
+**（1）成本量化**  
+- **垂直成本**：沟通成本（会议频率×时间价值）、政策执行延迟成本（如暴雨预警响应滞后导致的损失）。  
+- **水平成本**：协调成本（部门间谈判耗时）、冗余成本（如重复建设排水系统）。  
+**（2）效益量化**  
+- **韧性效益**：风险降低值（如洪水概率从10%降至5%对应的经济损失减少）。  
+- **协同乘数效应**：跨部门合作带来的额外收益（如环保与住建联合推动绿色屋顶，同时降温减排）。  
+**（3）优化模型**  
+构建目标函数：  
+\[
+\max \left( \sum \text{韧性效益}_i - \sum \text{协同成本}_j \right)
+\]  
+约束条件包括预算限制、政策可行性等，可通过线性规划或遗传算法求解。  
+#### 4. **实施建议**  
+- **试点工程**：选择高风险区域（如沿海街道）测试垂直-水平协同模型，收集数据迭代优化。  
+- **动态评估**：采用马尔可夫决策过程（MDP）模拟长期气候情景下的策略调整路径。  
+#### 5. **案例参考**  
+- 荷兰“多层级水治理”通过垂直分权与水平协作（水利-农业-城市规划），将防洪成本降低20%。  
+- 新加坡“气候韧性网络”利用跨部门数据平台，缩短应急响应时间30%。  
+#### 6. **风险与应对**  
+- **搭便车问题**：通过契约设计（如部门间奖惩协议）激励参与。  
+- **数据壁垒**：引入区块链技术确保信息透明共享。  
+该体系将数学建模与治理实践结合，为气候变化下的城市韧性提供量化决策工具。</t>
   </si>
 </sst>
 </file>
@@ -699,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,10 +1003,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -741,10 +1017,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -752,13 +1028,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -766,13 +1042,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -780,13 +1056,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -794,13 +1070,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -808,13 +1084,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -822,13 +1098,83 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
